--- a/Easter Eggs/Seasonal Awards/Summary List.xlsx
+++ b/Easter Eggs/Seasonal Awards/Summary List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91966\OneDrive\Desktop\Instant Codes\Cloned Repositaries\Noteworks\Z) EASTER EGGS\Seasonal Awards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Instant Codes\Cloned Repositaries\Noteworks\Easter Eggs\Seasonal Awards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4666C78-0CAC-41AE-91D1-B3AC6B000F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E470A800-767E-4F63-BDA6-A5B051062C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
   <si>
     <t>SNO</t>
   </si>
@@ -48,9 +48,6 @@
     <t>GAME</t>
   </si>
   <si>
-    <t>MOVIE</t>
-  </si>
-  <si>
     <t>LANGUAGE</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Summer</t>
   </si>
   <si>
-    <t>Counter-Strike Source</t>
-  </si>
-  <si>
     <t>Python</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>Can You Hear The Music</t>
   </si>
   <si>
-    <t>System Programming</t>
-  </si>
-  <si>
     <t>Software Engineering Academics</t>
   </si>
   <si>
@@ -228,9 +219,6 @@
     <t>ENTP</t>
   </si>
   <si>
-    <t>ENFJ</t>
-  </si>
-  <si>
     <t>INTJ</t>
   </si>
   <si>
@@ -240,9 +228,6 @@
     <t>Linus Torvaldes</t>
   </si>
   <si>
-    <t>Batman</t>
-  </si>
-  <si>
     <t>Prison Break</t>
   </si>
   <si>
@@ -340,6 +325,84 @@
   </si>
   <si>
     <t>"Broaden your mind"</t>
+  </si>
+  <si>
+    <t>MOVIE/SERIES</t>
+  </si>
+  <si>
+    <t>Compiler Design</t>
+  </si>
+  <si>
+    <t>Systems Programming</t>
+  </si>
+  <si>
+    <t>Man Of Steel Suite</t>
+  </si>
+  <si>
+    <t>The Polar Express</t>
+  </si>
+  <si>
+    <t>Data Godown (Tosbit)</t>
+  </si>
+  <si>
+    <t>Arindam Ghosh</t>
+  </si>
+  <si>
+    <t>Bruce Wayne (Trilogy)</t>
+  </si>
+  <si>
+    <t>Mahatma Gandhi</t>
+  </si>
+  <si>
+    <t>Rikhish Khumanthem</t>
+  </si>
+  <si>
+    <t>INFP</t>
+  </si>
+  <si>
+    <t>Software Marketing</t>
+  </si>
+  <si>
+    <t>"Strength to protect the weak"</t>
+  </si>
+  <si>
+    <t>"World is blind and cruel"</t>
+  </si>
+  <si>
+    <t>CSGO</t>
+  </si>
+  <si>
+    <t>Counter-Strike: Source</t>
+  </si>
+  <si>
+    <t>The Social Network</t>
+  </si>
+  <si>
+    <t>Clubbed To Death</t>
+  </si>
+  <si>
+    <t>Wizard Music Player</t>
+  </si>
+  <si>
+    <t>Lord Of The Rings</t>
+  </si>
+  <si>
+    <t>Harris Ali Khan</t>
+  </si>
+  <si>
+    <t>INTP</t>
+  </si>
+  <si>
+    <t>Aggressive Gaming</t>
+  </si>
+  <si>
+    <t>Bruce Wayne (The Batman)</t>
+  </si>
+  <si>
+    <t>Mark Zuckerburg</t>
+  </si>
+  <si>
+    <t>Chinmay Shah</t>
   </si>
 </sst>
 </file>
@@ -372,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,8 +496,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -494,11 +563,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,6 +661,49 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -873,23 +996,23 @@
     <col min="2" max="2" width="9.1796875" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" customWidth="1"/>
     <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="18.90625" customWidth="1"/>
+    <col min="5" max="5" width="20.7265625" customWidth="1"/>
     <col min="6" max="6" width="10.26953125" customWidth="1"/>
     <col min="7" max="7" width="29.453125" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="20.453125" customWidth="1"/>
     <col min="10" max="10" width="30.26953125" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="22.453125" customWidth="1"/>
+    <col min="12" max="12" width="25.26953125" customWidth="1"/>
     <col min="13" max="13" width="21.90625" customWidth="1"/>
-    <col min="14" max="14" width="17.36328125" customWidth="1"/>
+    <col min="14" max="14" width="20.36328125" customWidth="1"/>
     <col min="15" max="15" width="11.6328125" customWidth="1"/>
     <col min="16" max="16" width="21.08984375" customWidth="1"/>
     <col min="17" max="17" width="23.6328125" customWidth="1"/>
     <col min="18" max="18" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -903,217 +1026,218 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>2022</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="28">
+        <v>2021</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="H2" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="L2" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="42"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>2022</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="L3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="23" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="R4" s="25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1121,111 +1245,111 @@
         <v>2023</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="8">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="R6" s="25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1233,95 +1357,167 @@
         <v>2024</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="O8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="14" t="s">
+      <c r="Q8" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="Q7" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="R7" s="25" t="s">
+      <c r="R8" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="25"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="25"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11"/>
@@ -1341,7 +1537,7 @@
       <c r="Q10" s="23"/>
       <c r="R10" s="25"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11"/>
@@ -1361,7 +1557,7 @@
       <c r="Q11" s="23"/>
       <c r="R11" s="25"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="8"/>
       <c r="C12" s="11"/>
@@ -1381,7 +1577,7 @@
       <c r="Q12" s="23"/>
       <c r="R12" s="25"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="8"/>
       <c r="C13" s="11"/>
@@ -1401,7 +1597,7 @@
       <c r="Q13" s="23"/>
       <c r="R13" s="25"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="8"/>
       <c r="C14" s="11"/>
@@ -1421,7 +1617,7 @@
       <c r="Q14" s="23"/>
       <c r="R14" s="25"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11"/>
@@ -1441,7 +1637,7 @@
       <c r="Q15" s="23"/>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="8"/>
       <c r="C16" s="11"/>

--- a/Easter Eggs/Seasonal Awards/Summary List.xlsx
+++ b/Easter Eggs/Seasonal Awards/Summary List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Instant Codes\Cloned Repositaries\Noteworks\Easter Eggs\Seasonal Awards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E470A800-767E-4F63-BDA6-A5B051062C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD3C15A-8B36-4FF4-B6D6-C6EA348B90E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="133">
   <si>
     <t>SNO</t>
   </si>
@@ -403,6 +403,36 @@
   </si>
   <si>
     <t>Chinmay Shah</t>
+  </si>
+  <si>
+    <t>Silicon Valley</t>
+  </si>
+  <si>
+    <t>Cyber Security</t>
+  </si>
+  <si>
+    <t>Batman vs Superman OST</t>
+  </si>
+  <si>
+    <t>Dipayan Das</t>
+  </si>
+  <si>
+    <t>ENTJ</t>
+  </si>
+  <si>
+    <t>DEC AS-1</t>
+  </si>
+  <si>
+    <t>"Assert your dominance"</t>
+  </si>
+  <si>
+    <t>Nikola Tesla (The Prestige)</t>
+  </si>
+  <si>
+    <t>Aakash Kampu</t>
+  </si>
+  <si>
+    <t>Matt Reeves</t>
   </si>
 </sst>
 </file>
@@ -578,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -676,34 +706,21 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1012,7 +1029,7 @@
     <col min="18" max="18" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1085,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1087,45 +1104,44 @@
       <c r="F2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="42"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1181,7 +1197,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1237,7 +1253,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1293,7 +1309,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1349,7 +1365,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1405,7 +1421,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1461,7 +1477,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1517,27 +1533,63 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="25"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11"/>
@@ -1557,7 +1609,7 @@
       <c r="Q11" s="23"/>
       <c r="R11" s="25"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="8"/>
       <c r="C12" s="11"/>
@@ -1577,7 +1629,7 @@
       <c r="Q12" s="23"/>
       <c r="R12" s="25"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="8"/>
       <c r="C13" s="11"/>
@@ -1597,7 +1649,7 @@
       <c r="Q13" s="23"/>
       <c r="R13" s="25"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="8"/>
       <c r="C14" s="11"/>
@@ -1617,7 +1669,7 @@
       <c r="Q14" s="23"/>
       <c r="R14" s="25"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11"/>
@@ -1637,7 +1689,7 @@
       <c r="Q15" s="23"/>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="8"/>
       <c r="C16" s="11"/>
